--- a/assets/column_name.xlsx
+++ b/assets/column_name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NSO2025\Desktop\edit_data\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B839D46-AB80-44EB-B50F-314EDB18E905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A58817-34B1-41FA-9B1A-7426A439EC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15015" yWindow="-1665" windowWidth="12855" windowHeight="15540" xr2:uid="{0C31F8BD-B327-433D-82AA-86B42334CD0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C31F8BD-B327-433D-82AA-86B42334CD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>MonthOfBirth</t>
   </si>
   <si>
-    <t>ปีเกิด (พ.ศ.) (Year of Birth)</t>
-  </si>
-  <si>
     <t>YearOfBirth</t>
   </si>
   <si>
@@ -237,18 +234,9 @@
     <t>ที่อยู่อาศัยนี้มีจำนวนกี่ครัวเรือน (How many households live in this building?)</t>
   </si>
   <si>
-    <t>ใช้ภาษาไทยปนภาษาอื่น/ใช้เฉพาะภาษาอื่นๆ (ระบุภาษา) (Other Language)</t>
-  </si>
-  <si>
     <t>ผลการแจงนับครัวเรือน อื่นๆ (Other Enumeration of Household)</t>
   </si>
   <si>
-    <t>ลักษณะการครอบครอง ที่อยู่อาศัย ของคนในครัวเรือน (ไม่รวมที่ดิน) (Tenure Residence)</t>
-  </si>
-  <si>
-    <t>ลักษณะการครอบครอง ที่อยู่อาศัย ของคนในครัวเรือนอื่นๆ (ไม่รวมที่ดิน) (Other Tenure Residence)</t>
-  </si>
-  <si>
     <t>ลักษณะการครอบครอง ที่ดิน ที่เป็นที่ตั้งของที่อยู่อาศัย (Tenure Land)</t>
   </si>
   <si>
@@ -307,6 +295,18 @@
   </si>
   <si>
     <t>ประเภทบ้าน/อาคาร/สิ่งปลูกสร้างอื่นๆ (Other Type of Building)</t>
+  </si>
+  <si>
+    <t>ใช้ภาษาไทยปนภาษาอื่น/ใช้เฉพาะภาษาอื่นๆ (ระบุภาษา - Other Language)</t>
+  </si>
+  <si>
+    <t>ลักษณะการครอบครอง ที่อยู่อาศัย ของคนในครัวเรือน (ไม่รวมที่ดิน - Tenure Residence)</t>
+  </si>
+  <si>
+    <t>ลักษณะการครอบครอง ที่อยู่อาศัย ของคนในครัวเรือนอื่นๆ (ไม่รวมที่ดิน - Other Tenure Residence)</t>
+  </si>
+  <si>
+    <t>ปีเกิด พ.ศ. (Year of Birth)</t>
   </si>
 </sst>
 </file>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACABC08B-120A-4209-9A36-7E1085CBCEE3}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -772,15 +772,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>15</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>16</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>17</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>22</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>29</v>
@@ -1012,138 +1012,138 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/assets/column_name.xlsx
+++ b/assets/column_name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NSO2025\Desktop\edit_data\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A58817-34B1-41FA-9B1A-7426A439EC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A99167-B5D3-4671-9C54-FED4FCAA7808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C31F8BD-B327-433D-82AA-86B42334CD0B}"/>
+    <workbookView xWindow="3090" yWindow="2100" windowWidth="21600" windowHeight="11295" xr2:uid="{0C31F8BD-B327-433D-82AA-86B42334CD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>BuildingType</t>
   </si>
@@ -307,6 +307,18 @@
   </si>
   <si>
     <t>ปีเกิด พ.ศ. (Year of Birth)</t>
+  </si>
+  <si>
+    <t>ชื่อตัว (First Name)</t>
+  </si>
+  <si>
+    <t>ชื่อสกุล (Last Name)</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
   </si>
 </sst>
 </file>
@@ -403,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -442,6 +454,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACABC08B-120A-4209-9A36-7E1085CBCEE3}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -987,162 +1000,178 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="12" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B49" s="13" t="s">
         <v>66</v>
       </c>
     </row>

--- a/assets/column_name.xlsx
+++ b/assets/column_name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NSO2025\Desktop\edit_data\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A99167-B5D3-4671-9C54-FED4FCAA7808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804415BC-18AB-4D04-B04D-2310719EC742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="2100" windowWidth="21600" windowHeight="11295" xr2:uid="{0C31F8BD-B327-433D-82AA-86B42334CD0B}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="13965" windowHeight="11295" xr2:uid="{0C31F8BD-B327-433D-82AA-86B42334CD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>TotalPopulation</t>
   </si>
   <si>
-    <t>จำนวชายทั้งหมด (Total Male)</t>
-  </si>
-  <si>
     <t>TotalMale</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>FirstName</t>
+  </si>
+  <si>
+    <t>จำนวนชายทั้งหมด (Total Male)</t>
   </si>
 </sst>
 </file>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACABC08B-120A-4209-9A36-7E1085CBCEE3}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -785,15 +785,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>15</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>16</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>17</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>22</v>
@@ -953,226 +953,226 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
